--- a/01.descriptive/table_temp.xlsx
+++ b/01.descriptive/table_temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>i</t>
   </si>
@@ -248,202 +248,205 @@
     <t>66</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Aimorés</t>
+  </si>
+  <si>
+    <t>Alfenas</t>
+  </si>
+  <si>
+    <t>Almenara</t>
+  </si>
+  <si>
+    <t>Andrelândia</t>
+  </si>
+  <si>
+    <t>Araçuaí</t>
+  </si>
+  <si>
+    <t>Araxá</t>
+  </si>
+  <si>
+    <t>Barbacena</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Bocaiúva</t>
+  </si>
+  <si>
+    <t>Bom Despacho</t>
+  </si>
+  <si>
+    <t>Campo Belo</t>
+  </si>
+  <si>
+    <t>Capelinha</t>
+  </si>
+  <si>
+    <t>Caratinga</t>
+  </si>
+  <si>
     <t>Cataguases</t>
   </si>
   <si>
+    <t>Conceição do Mato Dentro</t>
+  </si>
+  <si>
+    <t>Conselheiro Lafaiete</t>
+  </si>
+  <si>
+    <t>Curvelo</t>
+  </si>
+  <si>
+    <t>Diamantina</t>
+  </si>
+  <si>
+    <t>Divinópolis</t>
+  </si>
+  <si>
+    <t>Formiga</t>
+  </si>
+  <si>
+    <t>Frutal</t>
+  </si>
+  <si>
+    <t>Governador Valadares</t>
+  </si>
+  <si>
+    <t>Grão Mogol</t>
+  </si>
+  <si>
+    <t>Guanhães</t>
+  </si>
+  <si>
+    <t>Ipatinga</t>
+  </si>
+  <si>
+    <t>Itabira</t>
+  </si>
+  <si>
+    <t>Itaguara</t>
+  </si>
+  <si>
+    <t>Itajubá</t>
+  </si>
+  <si>
+    <t>Ituiutaba</t>
+  </si>
+  <si>
+    <t>Janaúba</t>
+  </si>
+  <si>
+    <t>Januária</t>
+  </si>
+  <si>
     <t>Juiz de Fora</t>
   </si>
   <si>
+    <t>Lavras</t>
+  </si>
+  <si>
+    <t>Manhuaçu</t>
+  </si>
+  <si>
+    <t>Mantena</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>Muriaé</t>
+  </si>
+  <si>
+    <t>Nanuque</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>Ouro Preto</t>
+  </si>
+  <si>
+    <t>Pará de Minas</t>
+  </si>
+  <si>
+    <t>Paracatu</t>
+  </si>
+  <si>
+    <t>Passos</t>
+  </si>
+  <si>
+    <t>Patos de Minas</t>
+  </si>
+  <si>
+    <t>Patrocínio</t>
+  </si>
+  <si>
+    <t>Peçanha</t>
+  </si>
+  <si>
+    <t>Pedra Azul</t>
+  </si>
+  <si>
+    <t>Pirapora</t>
+  </si>
+  <si>
+    <t>Piuí</t>
+  </si>
+  <si>
+    <t>Poços de Caldas</t>
+  </si>
+  <si>
+    <t>Ponte Nova</t>
+  </si>
+  <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Santa Rita do Sapucaí</t>
+  </si>
+  <si>
+    <t>São João Del Rei</t>
+  </si>
+  <si>
+    <t>São Lourenço</t>
+  </si>
+  <si>
+    <t>São Sebastião do Paraíso</t>
+  </si>
+  <si>
+    <t>Sete Lagoas</t>
+  </si>
+  <si>
+    <t>Teófilo Otoni</t>
+  </si>
+  <si>
+    <t>Três Marias</t>
+  </si>
+  <si>
     <t>Ubá</t>
   </si>
   <si>
-    <t>Muriaé</t>
+    <t>Uberaba</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>Unaí</t>
+  </si>
+  <si>
+    <t>Varginha</t>
   </si>
   <si>
     <t>Viçosa</t>
-  </si>
-  <si>
-    <t>Manhuaçu</t>
-  </si>
-  <si>
-    <t>Ponte Nova</t>
-  </si>
-  <si>
-    <t>Barbacena</t>
-  </si>
-  <si>
-    <t>São João Del Rei</t>
-  </si>
-  <si>
-    <t>Lavras</t>
-  </si>
-  <si>
-    <t>Itajubá</t>
-  </si>
-  <si>
-    <t>Andrelândia</t>
-  </si>
-  <si>
-    <t>São Lourenço</t>
-  </si>
-  <si>
-    <t>Santa Rita do Sapucaí</t>
-  </si>
-  <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
-    <t>Poços de Caldas</t>
-  </si>
-  <si>
-    <t>Varginha</t>
-  </si>
-  <si>
-    <t>Alfenas</t>
-  </si>
-  <si>
-    <t>São Sebastião do Paraíso</t>
-  </si>
-  <si>
-    <t>Passos</t>
-  </si>
-  <si>
-    <t>Oliveira</t>
-  </si>
-  <si>
-    <t>Campo Belo</t>
-  </si>
-  <si>
-    <t>Formiga</t>
-  </si>
-  <si>
-    <t>Divinópolis</t>
-  </si>
-  <si>
-    <t>Piuí</t>
-  </si>
-  <si>
-    <t>Aimorés</t>
-  </si>
-  <si>
-    <t>Caratinga</t>
-  </si>
-  <si>
-    <t>Ipatinga</t>
-  </si>
-  <si>
-    <t>Mantena</t>
-  </si>
-  <si>
-    <t>Governador Valadares</t>
-  </si>
-  <si>
-    <t>Peçanha</t>
-  </si>
-  <si>
-    <t>Guanhães</t>
-  </si>
-  <si>
-    <t>Conselheiro Lafaiete</t>
-  </si>
-  <si>
-    <t>Ouro Preto</t>
-  </si>
-  <si>
-    <t>Itaguara</t>
-  </si>
-  <si>
-    <t>Itabira</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>Pará de Minas</t>
-  </si>
-  <si>
-    <t>Conceição do Mato Dentro</t>
-  </si>
-  <si>
-    <t>Sete Lagoas</t>
-  </si>
-  <si>
-    <t>Bom Despacho</t>
-  </si>
-  <si>
-    <t>Curvelo</t>
-  </si>
-  <si>
-    <t>Três Marias</t>
-  </si>
-  <si>
-    <t>Araxá</t>
-  </si>
-  <si>
-    <t>Uberaba</t>
-  </si>
-  <si>
-    <t>Frutal</t>
-  </si>
-  <si>
-    <t>Patos de Minas</t>
-  </si>
-  <si>
-    <t>Patrocínio</t>
-  </si>
-  <si>
-    <t>Uberlândia</t>
-  </si>
-  <si>
-    <t>Ituiutaba</t>
-  </si>
-  <si>
-    <t>Nanuque</t>
-  </si>
-  <si>
-    <t>Teófilo Otoni</t>
-  </si>
-  <si>
-    <t>Almenara</t>
-  </si>
-  <si>
-    <t>Pedra Azul</t>
-  </si>
-  <si>
-    <t>Araçuaí</t>
-  </si>
-  <si>
-    <t>Capelinha</t>
-  </si>
-  <si>
-    <t>Diamantina</t>
-  </si>
-  <si>
-    <t>Bocaiúva</t>
-  </si>
-  <si>
-    <t>Grão Mogol</t>
-  </si>
-  <si>
-    <t>Montes Claros</t>
-  </si>
-  <si>
-    <t>Pirapora</t>
-  </si>
-  <si>
-    <t>Salinas</t>
-  </si>
-  <si>
-    <t>Janaúba</t>
-  </si>
-  <si>
-    <t>Januária</t>
-  </si>
-  <si>
-    <t>Paracatu</t>
-  </si>
-  <si>
-    <t>Unaí</t>
   </si>
 </sst>
 </file>
@@ -538,40 +541,40 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="D2" t="n">
-        <v>10.5</v>
+        <v>14.0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.9</v>
+        <v>15.6</v>
       </c>
       <c r="F2" t="n">
-        <v>15.2</v>
+        <v>17.2</v>
       </c>
       <c r="G2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H2" t="n">
         <v>19.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>18.6</v>
-      </c>
       <c r="I2" t="n">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>21.0</v>
       </c>
       <c r="K2" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="L2" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="M2" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="3">
@@ -579,40 +582,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>10.0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="G3" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="H3" t="n">
         <v>16.2</v>
       </c>
       <c r="I3" t="n">
-        <v>17.7</v>
+        <v>16.9</v>
       </c>
       <c r="J3" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K3" t="n">
         <v>19.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>20.8</v>
-      </c>
       <c r="L3" t="n">
-        <v>22.1</v>
+        <v>20.0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="4">
@@ -620,40 +623,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
-        <v>8.4</v>
+        <v>12.2</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="E4" t="n">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="F4" t="n">
-        <v>15.2</v>
+        <v>17.2</v>
       </c>
       <c r="G4" t="n">
-        <v>17.9</v>
+        <v>19.0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4</v>
+        <v>18.6</v>
       </c>
       <c r="I4" t="n">
-        <v>17.7</v>
+        <v>19.0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="K4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="L4" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="M4" t="n">
-        <v>22.7</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -661,40 +664,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
-        <v>8.2</v>
+        <v>4.6</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="E5" t="n">
-        <v>12.9</v>
+        <v>9.8</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2</v>
+        <v>11.6</v>
       </c>
       <c r="G5" t="n">
-        <v>17.3</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
-        <v>16.8</v>
+        <v>13.9</v>
       </c>
       <c r="I5" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>19.5</v>
+        <v>16.3</v>
       </c>
       <c r="K5" t="n">
-        <v>20.8</v>
+        <v>17.2</v>
       </c>
       <c r="L5" t="n">
-        <v>22.1</v>
+        <v>17.8</v>
       </c>
       <c r="M5" t="n">
-        <v>22.2</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="6">
@@ -702,40 +705,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
       </c>
       <c r="D6" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.9</v>
+        <v>15.2</v>
       </c>
       <c r="F6" t="n">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="G6" t="n">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="H6" t="n">
-        <v>16.3</v>
+        <v>18.2</v>
       </c>
       <c r="I6" t="n">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="J6" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="K6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="L6" t="n">
-        <v>22.1</v>
+        <v>21.4</v>
       </c>
       <c r="M6" t="n">
-        <v>21.3</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="7">
@@ -743,40 +746,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="D7" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="n">
         <v>12.9</v>
       </c>
       <c r="F7" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="G7" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>16.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>16.2</v>
-      </c>
       <c r="I7" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="J7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="K7" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="L7" t="n">
-        <v>22.1</v>
+        <v>19.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="8">
@@ -784,40 +787,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" t="n">
-        <v>8.2</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>10.5</v>
+        <v>9.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
       <c r="F8" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="G8" t="n">
         <v>15.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>18.4</v>
-      </c>
       <c r="H8" t="n">
-        <v>17.8</v>
+        <v>14.8</v>
       </c>
       <c r="I8" t="n">
-        <v>17.7</v>
+        <v>15.2</v>
       </c>
       <c r="J8" t="n">
-        <v>19.5</v>
+        <v>17.1</v>
       </c>
       <c r="K8" t="n">
-        <v>20.8</v>
+        <v>18.0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.1</v>
+        <v>18.6</v>
       </c>
       <c r="M8" t="n">
-        <v>22.9</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="9">
@@ -825,40 +828,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F9" t="n">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="G9" t="n">
-        <v>15.2</v>
+        <v>16.9</v>
       </c>
       <c r="H9" t="n">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="I9" t="n">
-        <v>17.7</v>
+        <v>16.9</v>
       </c>
       <c r="J9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="K9" t="n">
-        <v>20.8</v>
+        <v>19.3</v>
       </c>
       <c r="L9" t="n">
-        <v>22.1</v>
+        <v>20.0</v>
       </c>
       <c r="M9" t="n">
-        <v>19.7</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
@@ -866,40 +869,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>5.8</v>
+        <v>10.3</v>
       </c>
       <c r="D10" t="n">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
       <c r="F10" t="n">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5</v>
+        <v>18.4</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9</v>
+        <v>17.8</v>
       </c>
       <c r="I10" t="n">
-        <v>17.7</v>
+        <v>18.4</v>
       </c>
       <c r="J10" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="K10" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="L10" t="n">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.0</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="11">
@@ -907,40 +910,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="n">
-        <v>5.9</v>
+        <v>8.3</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="F11" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="G11" t="n">
-        <v>15.8</v>
+        <v>18.5</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2</v>
+        <v>17.7</v>
       </c>
       <c r="I11" t="n">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="J11" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="K11" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="L11" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="M11" t="n">
-        <v>20.1</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="12">
@@ -948,40 +951,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="n">
-        <v>3.3</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>15.2</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>16.9</v>
       </c>
       <c r="H12" t="n">
-        <v>13.6</v>
+        <v>16.3</v>
       </c>
       <c r="I12" t="n">
-        <v>17.7</v>
+        <v>16.9</v>
       </c>
       <c r="J12" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K12" t="n">
         <v>19.5</v>
       </c>
-      <c r="K12" t="n">
-        <v>20.8</v>
-      </c>
       <c r="L12" t="n">
-        <v>22.1</v>
+        <v>20.1</v>
       </c>
       <c r="M12" t="n">
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="13">
@@ -989,40 +992,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6</v>
+        <v>10.1</v>
       </c>
       <c r="D13" t="n">
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="E13" t="n">
-        <v>12.9</v>
+        <v>14.1</v>
       </c>
       <c r="F13" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="G13" t="n">
-        <v>14.4</v>
+        <v>18.0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.9</v>
+        <v>17.4</v>
       </c>
       <c r="I13" t="n">
-        <v>17.7</v>
+        <v>18.0</v>
       </c>
       <c r="J13" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="K13" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="L13" t="n">
-        <v>22.1</v>
+        <v>20.7</v>
       </c>
       <c r="M13" t="n">
-        <v>18.9</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="14">
@@ -1030,40 +1033,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>9.2</v>
       </c>
       <c r="D14" t="n">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9</v>
+        <v>14.7</v>
       </c>
       <c r="F14" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="G14" t="n">
-        <v>14.5</v>
+        <v>18.7</v>
       </c>
       <c r="H14" t="n">
-        <v>13.8</v>
+        <v>18.2</v>
       </c>
       <c r="I14" t="n">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="J14" t="n">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="K14" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="L14" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="15">
@@ -1071,40 +1074,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="D15" t="n">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F15" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G15" t="n">
-        <v>15.7</v>
+        <v>19.0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.9</v>
+        <v>18.6</v>
       </c>
       <c r="I15" t="n">
-        <v>17.7</v>
+        <v>19.0</v>
       </c>
       <c r="J15" t="n">
-        <v>19.5</v>
+        <v>20.9</v>
       </c>
       <c r="K15" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="L15" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="M15" t="n">
-        <v>20.2</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="16">
@@ -1115,37 +1118,37 @@
         <v>92</v>
       </c>
       <c r="C16" t="n">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="D16" t="n">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F16" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G16" t="n">
-        <v>14.8</v>
+        <v>19.0</v>
       </c>
       <c r="H16" t="n">
-        <v>14.1</v>
+        <v>18.6</v>
       </c>
       <c r="I16" t="n">
-        <v>17.7</v>
+        <v>19.0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.5</v>
+        <v>20.9</v>
       </c>
       <c r="K16" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="L16" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="M16" t="n">
-        <v>19.2</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="17">
@@ -1156,37 +1159,37 @@
         <v>93</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="D17" t="n">
-        <v>10.5</v>
+        <v>11.0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2</v>
+        <v>14.1</v>
       </c>
       <c r="G17" t="n">
-        <v>15.6</v>
+        <v>16.8</v>
       </c>
       <c r="H17" t="n">
-        <v>14.8</v>
+        <v>16.1</v>
       </c>
       <c r="I17" t="n">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="J17" t="n">
-        <v>19.5</v>
+        <v>18.2</v>
       </c>
       <c r="K17" t="n">
-        <v>20.8</v>
+        <v>18.9</v>
       </c>
       <c r="L17" t="n">
-        <v>22.1</v>
+        <v>19.7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.0</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="18">
@@ -1197,37 +1200,37 @@
         <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D18" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="E18" t="n">
-        <v>12.9</v>
+        <v>11.0</v>
       </c>
       <c r="F18" t="n">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="G18" t="n">
-        <v>16.6</v>
+        <v>15.6</v>
       </c>
       <c r="H18" t="n">
-        <v>15.9</v>
+        <v>15.0</v>
       </c>
       <c r="I18" t="n">
-        <v>17.7</v>
+        <v>15.6</v>
       </c>
       <c r="J18" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="K18" t="n">
-        <v>20.8</v>
+        <v>18.3</v>
       </c>
       <c r="L18" t="n">
-        <v>22.1</v>
+        <v>19.0</v>
       </c>
       <c r="M18" t="n">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="19">
@@ -1238,37 +1241,37 @@
         <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>6.1</v>
+        <v>10.2</v>
       </c>
       <c r="D19" t="n">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="E19" t="n">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="F19" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G19" t="n">
-        <v>16.9</v>
+        <v>19.1</v>
       </c>
       <c r="H19" t="n">
-        <v>16.2</v>
+        <v>18.4</v>
       </c>
       <c r="I19" t="n">
-        <v>17.7</v>
+        <v>19.1</v>
       </c>
       <c r="J19" t="n">
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="K19" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="L19" t="n">
-        <v>22.1</v>
+        <v>22.0</v>
       </c>
       <c r="M19" t="n">
-        <v>21.7</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="20">
@@ -1279,37 +1282,37 @@
         <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>4.5</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F20" t="n">
-        <v>15.2</v>
+        <v>14.3</v>
       </c>
       <c r="G20" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="H20" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="I20" t="n">
-        <v>17.7</v>
+        <v>16.8</v>
       </c>
       <c r="J20" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L20" t="n">
         <v>19.5</v>
       </c>
-      <c r="K20" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>22.1</v>
-      </c>
       <c r="M20" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="21">
@@ -1320,37 +1323,37 @@
         <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>10.5</v>
+        <v>11.0</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F21" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="G21" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="H21" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="I21" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="J21" t="n">
-        <v>19.5</v>
+        <v>19.1</v>
       </c>
       <c r="K21" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="L21" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
       </c>
       <c r="M21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="22">
@@ -1361,37 +1364,37 @@
         <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="D22" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="E22" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F22" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="G22" t="n">
-        <v>16.2</v>
+        <v>17.4</v>
       </c>
       <c r="H22" t="n">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="I22" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="J22" t="n">
-        <v>19.5</v>
+        <v>19.0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="L22" t="n">
-        <v>22.1</v>
+        <v>20.4</v>
       </c>
       <c r="M22" t="n">
-        <v>20.6</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="23">
@@ -1402,37 +1405,37 @@
         <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>7.0</v>
+        <v>7.7</v>
       </c>
       <c r="D23" t="n">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="E23" t="n">
-        <v>12.9</v>
+        <v>16.6</v>
       </c>
       <c r="F23" t="n">
-        <v>15.2</v>
+        <v>18.6</v>
       </c>
       <c r="G23" t="n">
-        <v>16.9</v>
+        <v>21.0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.3</v>
+        <v>20.2</v>
       </c>
       <c r="I23" t="n">
-        <v>17.7</v>
+        <v>21.0</v>
       </c>
       <c r="J23" t="n">
-        <v>19.5</v>
+        <v>22.1</v>
       </c>
       <c r="K23" t="n">
-        <v>20.8</v>
+        <v>22.8</v>
       </c>
       <c r="L23" t="n">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="M23" t="n">
-        <v>21.7</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="24">
@@ -1443,37 +1446,37 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>7.7</v>
+        <v>11.2</v>
       </c>
       <c r="D24" t="n">
-        <v>10.5</v>
+        <v>14.6</v>
       </c>
       <c r="E24" t="n">
-        <v>12.9</v>
+        <v>16.4</v>
       </c>
       <c r="F24" t="n">
-        <v>15.2</v>
+        <v>17.9</v>
       </c>
       <c r="G24" t="n">
-        <v>17.4</v>
+        <v>20.1</v>
       </c>
       <c r="H24" t="n">
-        <v>16.7</v>
+        <v>19.7</v>
       </c>
       <c r="I24" t="n">
-        <v>17.7</v>
+        <v>20.1</v>
       </c>
       <c r="J24" t="n">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="K24" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="L24" t="n">
-        <v>22.1</v>
+        <v>23.2</v>
       </c>
       <c r="M24" t="n">
-        <v>21.9</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -1484,37 +1487,37 @@
         <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>7.5</v>
+        <v>10.4</v>
       </c>
       <c r="D25" t="n">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="E25" t="n">
-        <v>12.9</v>
+        <v>14.1</v>
       </c>
       <c r="F25" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="G25" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="H25" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="I25" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="J25" t="n">
-        <v>19.5</v>
+        <v>19.0</v>
       </c>
       <c r="K25" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="L25" t="n">
-        <v>22.1</v>
+        <v>20.5</v>
       </c>
       <c r="M25" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="26">
@@ -1525,37 +1528,37 @@
         <v>102</v>
       </c>
       <c r="C26" t="n">
-        <v>6.7</v>
+        <v>8.8</v>
       </c>
       <c r="D26" t="n">
-        <v>10.5</v>
+        <v>12.0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="F26" t="n">
         <v>15.2</v>
       </c>
       <c r="G26" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="H26" t="n">
-        <v>16.4</v>
+        <v>17.0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="J26" t="n">
-        <v>19.5</v>
+        <v>19.0</v>
       </c>
       <c r="K26" t="n">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
       <c r="L26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M26" t="n">
         <v>22.1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>21.9</v>
       </c>
     </row>
     <row r="27">
@@ -1566,37 +1569,37 @@
         <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>10.4</v>
+        <v>10.0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="E27" t="n">
-        <v>12.9</v>
+        <v>14.9</v>
       </c>
       <c r="F27" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G27" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>19.0</v>
+        <v>18.4</v>
       </c>
       <c r="I27" t="n">
-        <v>17.7</v>
+        <v>18.9</v>
       </c>
       <c r="J27" t="n">
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="K27" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="L27" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="M27" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="28">
@@ -1607,37 +1610,37 @@
         <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>9.2</v>
+        <v>7.4</v>
       </c>
       <c r="D28" t="n">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.9</v>
+        <v>13.0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="G28" t="n">
-        <v>18.7</v>
+        <v>17.2</v>
       </c>
       <c r="H28" t="n">
-        <v>18.2</v>
+        <v>16.7</v>
       </c>
       <c r="I28" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="J28" t="n">
-        <v>19.5</v>
+        <v>18.8</v>
       </c>
       <c r="K28" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="L28" t="n">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="M28" t="n">
-        <v>23.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="29">
@@ -1648,37 +1651,37 @@
         <v>105</v>
       </c>
       <c r="C29" t="n">
-        <v>10.0</v>
+        <v>7.1</v>
       </c>
       <c r="D29" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="E29" t="n">
-        <v>12.9</v>
+        <v>11.7</v>
       </c>
       <c r="F29" t="n">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="G29" t="n">
-        <v>18.9</v>
+        <v>16.2</v>
       </c>
       <c r="H29" t="n">
-        <v>18.4</v>
+        <v>15.6</v>
       </c>
       <c r="I29" t="n">
-        <v>17.7</v>
+        <v>16.2</v>
       </c>
       <c r="J29" t="n">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="K29" t="n">
-        <v>20.8</v>
+        <v>18.7</v>
       </c>
       <c r="L29" t="n">
-        <v>22.1</v>
+        <v>19.3</v>
       </c>
       <c r="M29" t="n">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="30">
@@ -1689,37 +1692,37 @@
         <v>106</v>
       </c>
       <c r="C30" t="n">
-        <v>11.6</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="E30" t="n">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
       <c r="F30" t="n">
-        <v>15.2</v>
+        <v>11.4</v>
       </c>
       <c r="G30" t="n">
-        <v>19.3</v>
+        <v>14.2</v>
       </c>
       <c r="H30" t="n">
-        <v>18.9</v>
+        <v>13.6</v>
       </c>
       <c r="I30" t="n">
-        <v>17.7</v>
+        <v>14.2</v>
       </c>
       <c r="J30" t="n">
-        <v>19.5</v>
+        <v>16.0</v>
       </c>
       <c r="K30" t="n">
-        <v>20.8</v>
+        <v>16.9</v>
       </c>
       <c r="L30" t="n">
-        <v>22.1</v>
+        <v>17.6</v>
       </c>
       <c r="M30" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="31">
@@ -1730,37 +1733,37 @@
         <v>107</v>
       </c>
       <c r="C31" t="n">
-        <v>11.2</v>
+        <v>7.7</v>
       </c>
       <c r="D31" t="n">
-        <v>10.5</v>
+        <v>14.1</v>
       </c>
       <c r="E31" t="n">
-        <v>12.9</v>
+        <v>17.1</v>
       </c>
       <c r="F31" t="n">
-        <v>15.2</v>
+        <v>18.9</v>
       </c>
       <c r="G31" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="H31" t="n">
-        <v>19.7</v>
+        <v>20.4</v>
       </c>
       <c r="I31" t="n">
-        <v>17.7</v>
+        <v>21.1</v>
       </c>
       <c r="J31" t="n">
-        <v>19.5</v>
+        <v>22.1</v>
       </c>
       <c r="K31" t="n">
-        <v>20.8</v>
+        <v>22.8</v>
       </c>
       <c r="L31" t="n">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="M31" t="n">
-        <v>25.0</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="32">
@@ -1771,37 +1774,37 @@
         <v>108</v>
       </c>
       <c r="C32" t="n">
-        <v>10.4</v>
+        <v>13.6</v>
       </c>
       <c r="D32" t="n">
-        <v>10.5</v>
+        <v>15.6</v>
       </c>
       <c r="E32" t="n">
-        <v>12.9</v>
+        <v>17.0</v>
       </c>
       <c r="F32" t="n">
-        <v>15.2</v>
+        <v>18.5</v>
       </c>
       <c r="G32" t="n">
-        <v>18.8</v>
+        <v>20.3</v>
       </c>
       <c r="H32" t="n">
-        <v>18.3</v>
+        <v>19.9</v>
       </c>
       <c r="I32" t="n">
-        <v>17.7</v>
+        <v>20.3</v>
       </c>
       <c r="J32" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="K32" t="n">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="L32" t="n">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="M32" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="33">
@@ -1812,37 +1815,37 @@
         <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>8.8</v>
+        <v>13.5</v>
       </c>
       <c r="D33" t="n">
-        <v>10.5</v>
+        <v>16.0</v>
       </c>
       <c r="E33" t="n">
-        <v>12.9</v>
+        <v>17.4</v>
       </c>
       <c r="F33" t="n">
-        <v>15.2</v>
+        <v>19.0</v>
       </c>
       <c r="G33" t="n">
-        <v>17.6</v>
+        <v>20.6</v>
       </c>
       <c r="H33" t="n">
-        <v>17.0</v>
+        <v>20.2</v>
       </c>
       <c r="I33" t="n">
-        <v>17.7</v>
+        <v>20.6</v>
       </c>
       <c r="J33" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="K33" t="n">
-        <v>20.8</v>
+        <v>22.4</v>
       </c>
       <c r="L33" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="M33" t="n">
-        <v>22.1</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="34">
@@ -1853,37 +1856,37 @@
         <v>110</v>
       </c>
       <c r="C34" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D34" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="E34" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>15.2</v>
+        <v>14.0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="H34" t="n">
-        <v>15.0</v>
+        <v>16.2</v>
       </c>
       <c r="I34" t="n">
-        <v>17.7</v>
+        <v>16.6</v>
       </c>
       <c r="J34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K34" t="n">
         <v>19.5</v>
       </c>
-      <c r="K34" t="n">
-        <v>20.8</v>
-      </c>
       <c r="L34" t="n">
-        <v>22.1</v>
+        <v>20.2</v>
       </c>
       <c r="M34" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="35">
@@ -1894,37 +1897,37 @@
         <v>111</v>
       </c>
       <c r="C35" t="n">
-        <v>6.0</v>
+        <v>5.9</v>
       </c>
       <c r="D35" t="n">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="E35" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F35" t="n">
         <v>12.9</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.2</v>
       </c>
-      <c r="G35" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="H35" t="n">
-        <v>15.3</v>
-      </c>
       <c r="I35" t="n">
-        <v>17.7</v>
+        <v>15.8</v>
       </c>
       <c r="J35" t="n">
-        <v>19.5</v>
+        <v>17.6</v>
       </c>
       <c r="K35" t="n">
-        <v>20.8</v>
+        <v>18.5</v>
       </c>
       <c r="L35" t="n">
-        <v>22.1</v>
+        <v>19.1</v>
       </c>
       <c r="M35" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="36">
@@ -1935,37 +1938,37 @@
         <v>112</v>
       </c>
       <c r="C36" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="D36" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="E36" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F36" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="G36" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H36" t="n">
         <v>16.2</v>
       </c>
-      <c r="H36" t="n">
-        <v>15.6</v>
-      </c>
       <c r="I36" t="n">
-        <v>17.7</v>
+        <v>16.6</v>
       </c>
       <c r="J36" t="n">
-        <v>19.5</v>
+        <v>18.3</v>
       </c>
       <c r="K36" t="n">
-        <v>20.8</v>
+        <v>19.1</v>
       </c>
       <c r="L36" t="n">
-        <v>22.1</v>
+        <v>19.9</v>
       </c>
       <c r="M36" t="n">
-        <v>20.3</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="37">
@@ -1976,37 +1979,37 @@
         <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>7.4</v>
+        <v>11.6</v>
       </c>
       <c r="D37" t="n">
-        <v>10.5</v>
+        <v>13.9</v>
       </c>
       <c r="E37" t="n">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>15.2</v>
+        <v>17.4</v>
       </c>
       <c r="G37" t="n">
-        <v>17.2</v>
+        <v>19.3</v>
       </c>
       <c r="H37" t="n">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="I37" t="n">
-        <v>17.7</v>
+        <v>19.3</v>
       </c>
       <c r="J37" t="n">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="L37" t="n">
         <v>22.1</v>
       </c>
       <c r="M37" t="n">
-        <v>21.3</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="38">
@@ -2017,37 +2020,37 @@
         <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>7.6</v>
+        <v>12.4</v>
       </c>
       <c r="D38" t="n">
-        <v>10.5</v>
+        <v>15.1</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9</v>
+        <v>16.3</v>
       </c>
       <c r="F38" t="n">
-        <v>15.2</v>
+        <v>17.9</v>
       </c>
       <c r="G38" t="n">
-        <v>16.9</v>
+        <v>19.7</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2</v>
+        <v>19.3</v>
       </c>
       <c r="I38" t="n">
-        <v>17.7</v>
+        <v>19.7</v>
       </c>
       <c r="J38" t="n">
-        <v>19.5</v>
+        <v>20.8</v>
       </c>
       <c r="K38" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="L38" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="M38" t="n">
-        <v>21.0</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="39">
@@ -2058,37 +2061,37 @@
         <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>7.9</v>
+        <v>8.2</v>
       </c>
       <c r="D39" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="E39" t="n">
-        <v>12.9</v>
+        <v>13.0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="G39" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="H39" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="I39" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="J39" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="K39" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L39" t="n">
         <v>20.8</v>
       </c>
-      <c r="L39" t="n">
-        <v>22.1</v>
-      </c>
       <c r="M39" t="n">
-        <v>23.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="40">
@@ -2099,37 +2102,37 @@
         <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>7.9</v>
+        <v>12.6</v>
       </c>
       <c r="D40" t="n">
-        <v>10.5</v>
+        <v>15.1</v>
       </c>
       <c r="E40" t="n">
-        <v>12.9</v>
+        <v>16.6</v>
       </c>
       <c r="F40" t="n">
-        <v>15.2</v>
+        <v>18.0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.8</v>
+        <v>20.1</v>
       </c>
       <c r="H40" t="n">
-        <v>16.1</v>
+        <v>19.7</v>
       </c>
       <c r="I40" t="n">
-        <v>17.7</v>
+        <v>20.1</v>
       </c>
       <c r="J40" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="L40" t="n">
-        <v>22.1</v>
+        <v>23.2</v>
       </c>
       <c r="M40" t="n">
-        <v>21.1</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="41">
@@ -2140,37 +2143,37 @@
         <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>9.0</v>
+        <v>6.7</v>
       </c>
       <c r="D41" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="E41" t="n">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="F41" t="n">
-        <v>15.2</v>
+        <v>13.4</v>
       </c>
       <c r="G41" t="n">
-        <v>18.0</v>
+        <v>16.2</v>
       </c>
       <c r="H41" t="n">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="I41" t="n">
-        <v>17.7</v>
+        <v>16.2</v>
       </c>
       <c r="J41" t="n">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="K41" t="n">
-        <v>20.8</v>
+        <v>18.7</v>
       </c>
       <c r="L41" t="n">
-        <v>22.1</v>
+        <v>19.3</v>
       </c>
       <c r="M41" t="n">
-        <v>22.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="42">
@@ -2181,37 +2184,37 @@
         <v>118</v>
       </c>
       <c r="C42" t="n">
-        <v>8.3</v>
+        <v>6.0</v>
       </c>
       <c r="D42" t="n">
-        <v>10.5</v>
+        <v>10.0</v>
       </c>
       <c r="E42" t="n">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="F42" t="n">
-        <v>15.2</v>
+        <v>13.1</v>
       </c>
       <c r="G42" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K42" t="n">
         <v>18.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>20.8</v>
-      </c>
       <c r="L42" t="n">
-        <v>22.1</v>
+        <v>19.1</v>
       </c>
       <c r="M42" t="n">
-        <v>23.9</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="43">
@@ -2222,37 +2225,37 @@
         <v>119</v>
       </c>
       <c r="C43" t="n">
-        <v>10.2</v>
+        <v>7.9</v>
       </c>
       <c r="D43" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="E43" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="F43" t="n">
         <v>15.2</v>
       </c>
       <c r="G43" t="n">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="H43" t="n">
-        <v>18.4</v>
+        <v>17.2</v>
       </c>
       <c r="I43" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="J43" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="K43" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="L43" t="n">
-        <v>22.1</v>
+        <v>21.2</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="44">
@@ -2263,37 +2266,37 @@
         <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="D44" t="n">
-        <v>10.5</v>
+        <v>14.3</v>
       </c>
       <c r="E44" t="n">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="F44" t="n">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="G44" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="H44" t="n">
-        <v>18.8</v>
+        <v>19.0</v>
       </c>
       <c r="I44" t="n">
-        <v>17.7</v>
+        <v>19.7</v>
       </c>
       <c r="J44" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="K44" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="L44" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="M44" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="45">
@@ -2304,37 +2307,37 @@
         <v>121</v>
       </c>
       <c r="C45" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D45" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
       </c>
       <c r="E45" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F45" t="n">
-        <v>15.2</v>
+        <v>15.0</v>
       </c>
       <c r="G45" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="H45" t="n">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
       <c r="I45" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="J45" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="K45" t="n">
-        <v>20.8</v>
+        <v>20.0</v>
       </c>
       <c r="L45" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
       </c>
       <c r="M45" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="46">
@@ -2345,37 +2348,37 @@
         <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>6.9</v>
+        <v>8.0</v>
       </c>
       <c r="D46" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="E46" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="F46" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="G46" t="n">
-        <v>19.4</v>
+        <v>17.8</v>
       </c>
       <c r="H46" t="n">
-        <v>18.7</v>
+        <v>17.0</v>
       </c>
       <c r="I46" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="J46" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="K46" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="L46" t="n">
-        <v>22.1</v>
+        <v>20.4</v>
       </c>
       <c r="M46" t="n">
-        <v>25.0</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="47">
@@ -2386,37 +2389,37 @@
         <v>123</v>
       </c>
       <c r="C47" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D47" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="E47" t="n">
-        <v>12.9</v>
+        <v>14.1</v>
       </c>
       <c r="F47" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="G47" t="n">
-        <v>21.0</v>
+        <v>18.3</v>
       </c>
       <c r="H47" t="n">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="I47" t="n">
-        <v>17.7</v>
+        <v>18.3</v>
       </c>
       <c r="J47" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="K47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L47" t="n">
         <v>20.8</v>
       </c>
-      <c r="L47" t="n">
-        <v>22.1</v>
-      </c>
       <c r="M47" t="n">
-        <v>26.5</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="48">
@@ -2427,37 +2430,37 @@
         <v>124</v>
       </c>
       <c r="C48" t="n">
-        <v>8.0</v>
+        <v>10.4</v>
       </c>
       <c r="D48" t="n">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9</v>
+        <v>14.9</v>
       </c>
       <c r="F48" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G48" t="n">
-        <v>17.8</v>
+        <v>18.8</v>
       </c>
       <c r="H48" t="n">
-        <v>17.0</v>
+        <v>18.3</v>
       </c>
       <c r="I48" t="n">
-        <v>17.7</v>
+        <v>18.8</v>
       </c>
       <c r="J48" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="K48" t="n">
-        <v>20.8</v>
+        <v>21.0</v>
       </c>
       <c r="L48" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="M48" t="n">
-        <v>22.4</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="49">
@@ -2468,37 +2471,37 @@
         <v>125</v>
       </c>
       <c r="C49" t="n">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="D49" t="n">
-        <v>10.5</v>
+        <v>13.6</v>
       </c>
       <c r="E49" t="n">
-        <v>12.9</v>
+        <v>15.2</v>
       </c>
       <c r="F49" t="n">
-        <v>15.2</v>
+        <v>16.6</v>
       </c>
       <c r="G49" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="H49" t="n">
-        <v>17.5</v>
+        <v>18.0</v>
       </c>
       <c r="I49" t="n">
-        <v>17.7</v>
+        <v>18.4</v>
       </c>
       <c r="J49" t="n">
         <v>19.5</v>
       </c>
       <c r="K49" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="L49" t="n">
-        <v>22.1</v>
+        <v>20.9</v>
       </c>
       <c r="M49" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="50">
@@ -2509,37 +2512,37 @@
         <v>126</v>
       </c>
       <c r="C50" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
-        <v>10.5</v>
+        <v>15.1</v>
       </c>
       <c r="E50" t="n">
-        <v>12.9</v>
+        <v>16.5</v>
       </c>
       <c r="F50" t="n">
-        <v>15.2</v>
+        <v>18.1</v>
       </c>
       <c r="G50" t="n">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="H50" t="n">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="I50" t="n">
-        <v>17.7</v>
+        <v>20.2</v>
       </c>
       <c r="J50" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="K50" t="n">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="L50" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
       <c r="M50" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="51">
@@ -2550,37 +2553,37 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="D51" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="E51" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="G51" t="n">
-        <v>21.1</v>
+        <v>17.3</v>
       </c>
       <c r="H51" t="n">
-        <v>20.4</v>
+        <v>16.4</v>
       </c>
       <c r="I51" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="J51" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K51" t="n">
         <v>19.5</v>
       </c>
-      <c r="K51" t="n">
-        <v>20.8</v>
-      </c>
       <c r="L51" t="n">
-        <v>22.1</v>
+        <v>20.1</v>
       </c>
       <c r="M51" t="n">
-        <v>26.5</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="52">
@@ -2591,37 +2594,37 @@
         <v>128</v>
       </c>
       <c r="C52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F52" t="n">
         <v>12.6</v>
       </c>
-      <c r="D52" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>15.2</v>
-      </c>
       <c r="G52" t="n">
-        <v>20.1</v>
+        <v>15.6</v>
       </c>
       <c r="H52" t="n">
-        <v>19.7</v>
+        <v>14.8</v>
       </c>
       <c r="I52" t="n">
-        <v>17.7</v>
+        <v>15.6</v>
       </c>
       <c r="J52" t="n">
-        <v>19.5</v>
+        <v>17.3</v>
       </c>
       <c r="K52" t="n">
-        <v>20.8</v>
+        <v>18.0</v>
       </c>
       <c r="L52" t="n">
-        <v>22.1</v>
+        <v>18.7</v>
       </c>
       <c r="M52" t="n">
-        <v>24.8</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="53">
@@ -2632,37 +2635,37 @@
         <v>129</v>
       </c>
       <c r="C53" t="n">
-        <v>11.2</v>
+        <v>8.2</v>
       </c>
       <c r="D53" t="n">
-        <v>10.5</v>
+        <v>12.3</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="F53" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="G53" t="n">
-        <v>19.0</v>
+        <v>18.4</v>
       </c>
       <c r="H53" t="n">
-        <v>18.5</v>
+        <v>17.8</v>
       </c>
       <c r="I53" t="n">
-        <v>17.7</v>
+        <v>18.4</v>
       </c>
       <c r="J53" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="K53" t="n">
-        <v>20.8</v>
+        <v>21.0</v>
       </c>
       <c r="L53" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="M53" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="54">
@@ -2673,37 +2676,37 @@
         <v>130</v>
       </c>
       <c r="C54" t="n">
-        <v>12.2</v>
+        <v>2.5</v>
       </c>
       <c r="D54" t="n">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="E54" t="n">
-        <v>12.9</v>
+        <v>10.2</v>
       </c>
       <c r="F54" t="n">
-        <v>15.2</v>
+        <v>11.9</v>
       </c>
       <c r="G54" t="n">
-        <v>19.0</v>
+        <v>14.8</v>
       </c>
       <c r="H54" t="n">
-        <v>18.6</v>
+        <v>14.1</v>
       </c>
       <c r="I54" t="n">
-        <v>17.7</v>
+        <v>14.8</v>
       </c>
       <c r="J54" t="n">
-        <v>19.5</v>
+        <v>16.6</v>
       </c>
       <c r="K54" t="n">
-        <v>20.8</v>
+        <v>17.4</v>
       </c>
       <c r="L54" t="n">
-        <v>22.1</v>
+        <v>18.1</v>
       </c>
       <c r="M54" t="n">
-        <v>23.0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="55">
@@ -2714,37 +2717,37 @@
         <v>131</v>
       </c>
       <c r="C55" t="n">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="D55" t="n">
-        <v>10.5</v>
+        <v>13.0</v>
       </c>
       <c r="E55" t="n">
-        <v>12.9</v>
+        <v>14.5</v>
       </c>
       <c r="F55" t="n">
-        <v>15.2</v>
+        <v>16.0</v>
       </c>
       <c r="G55" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="H55" t="n">
-        <v>18.0</v>
+        <v>17.4</v>
       </c>
       <c r="I55" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="J55" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="K55" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="L55" t="n">
-        <v>22.1</v>
+        <v>20.4</v>
       </c>
       <c r="M55" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="56">
@@ -2755,37 +2758,37 @@
         <v>132</v>
       </c>
       <c r="C56" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="D56" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="E56" t="n">
-        <v>12.9</v>
+        <v>10.6</v>
       </c>
       <c r="F56" t="n">
-        <v>15.2</v>
+        <v>12.6</v>
       </c>
       <c r="G56" t="n">
-        <v>18.7</v>
+        <v>15.7</v>
       </c>
       <c r="H56" t="n">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="I56" t="n">
-        <v>17.7</v>
+        <v>15.7</v>
       </c>
       <c r="J56" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="K56" t="n">
-        <v>20.8</v>
+        <v>18.4</v>
       </c>
       <c r="L56" t="n">
-        <v>22.1</v>
+        <v>19.1</v>
       </c>
       <c r="M56" t="n">
-        <v>23.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="57">
@@ -2796,37 +2799,37 @@
         <v>133</v>
       </c>
       <c r="C57" t="n">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="D57" t="n">
-        <v>10.5</v>
+        <v>8.9</v>
       </c>
       <c r="E57" t="n">
-        <v>12.9</v>
+        <v>10.8</v>
       </c>
       <c r="F57" t="n">
-        <v>15.2</v>
+        <v>12.7</v>
       </c>
       <c r="G57" t="n">
-        <v>18.0</v>
+        <v>15.5</v>
       </c>
       <c r="H57" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J57" t="n">
         <v>17.4</v>
       </c>
-      <c r="I57" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>19.5</v>
-      </c>
       <c r="K57" t="n">
-        <v>20.8</v>
+        <v>18.2</v>
       </c>
       <c r="L57" t="n">
-        <v>22.1</v>
+        <v>18.9</v>
       </c>
       <c r="M57" t="n">
-        <v>22.5</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="58">
@@ -2837,37 +2840,37 @@
         <v>134</v>
       </c>
       <c r="C58" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D58" t="n">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="E58" t="n">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
       <c r="F58" t="n">
-        <v>15.2</v>
+        <v>11.6</v>
       </c>
       <c r="G58" t="n">
-        <v>16.8</v>
+        <v>14.5</v>
       </c>
       <c r="H58" t="n">
-        <v>16.1</v>
+        <v>13.8</v>
       </c>
       <c r="I58" t="n">
-        <v>17.7</v>
+        <v>14.5</v>
       </c>
       <c r="J58" t="n">
-        <v>19.5</v>
+        <v>16.3</v>
       </c>
       <c r="K58" t="n">
-        <v>20.8</v>
+        <v>17.2</v>
       </c>
       <c r="L58" t="n">
-        <v>22.1</v>
+        <v>17.8</v>
       </c>
       <c r="M58" t="n">
-        <v>21.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="59">
@@ -2878,37 +2881,37 @@
         <v>135</v>
       </c>
       <c r="C59" t="n">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="D59" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="E59" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F59" t="n">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="G59" t="n">
-        <v>18.4</v>
+        <v>17.1</v>
       </c>
       <c r="H59" t="n">
-        <v>17.8</v>
+        <v>16.3</v>
       </c>
       <c r="I59" t="n">
-        <v>17.7</v>
+        <v>17.1</v>
       </c>
       <c r="J59" t="n">
-        <v>19.5</v>
+        <v>18.6</v>
       </c>
       <c r="K59" t="n">
-        <v>20.8</v>
+        <v>19.3</v>
       </c>
       <c r="L59" t="n">
-        <v>22.1</v>
+        <v>19.9</v>
       </c>
       <c r="M59" t="n">
-        <v>23.1</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="60">
@@ -2919,37 +2922,37 @@
         <v>136</v>
       </c>
       <c r="C60" t="n">
-        <v>10.4</v>
+        <v>9.0</v>
       </c>
       <c r="D60" t="n">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="E60" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="F60" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="G60" t="n">
-        <v>17.9</v>
+        <v>18.0</v>
       </c>
       <c r="H60" t="n">
         <v>17.3</v>
       </c>
       <c r="I60" t="n">
-        <v>17.7</v>
+        <v>18.0</v>
       </c>
       <c r="J60" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="K60" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="L60" t="n">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="M60" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="61">
@@ -2960,37 +2963,37 @@
         <v>137</v>
       </c>
       <c r="C61" t="n">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="D61" t="n">
-        <v>10.5</v>
+        <v>13.6</v>
       </c>
       <c r="E61" t="n">
-        <v>12.9</v>
+        <v>15.4</v>
       </c>
       <c r="F61" t="n">
-        <v>15.2</v>
+        <v>16.9</v>
       </c>
       <c r="G61" t="n">
-        <v>19.7</v>
+        <v>19.0</v>
       </c>
       <c r="H61" t="n">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="I61" t="n">
-        <v>17.7</v>
+        <v>19.0</v>
       </c>
       <c r="J61" t="n">
-        <v>19.5</v>
+        <v>20.2</v>
       </c>
       <c r="K61" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="L61" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="M61" t="n">
-        <v>25.9</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="62">
@@ -3001,37 +3004,37 @@
         <v>138</v>
       </c>
       <c r="C62" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D62" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="E62" t="n">
-        <v>12.9</v>
+        <v>15.1</v>
       </c>
       <c r="F62" t="n">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="G62" t="n">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="H62" t="n">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="I62" t="n">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="J62" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="K62" t="n">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="L62" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="M62" t="n">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="63">
@@ -3042,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>10.9</v>
+        <v>8.4</v>
       </c>
       <c r="D63" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="E63" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="F63" t="n">
         <v>15.2</v>
@@ -3060,19 +3063,19 @@
         <v>17.4</v>
       </c>
       <c r="I63" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="J63" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="K63" t="n">
         <v>20.8</v>
       </c>
       <c r="L63" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="M63" t="n">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="64">
@@ -3083,37 +3086,37 @@
         <v>140</v>
       </c>
       <c r="C64" t="n">
-        <v>13.6</v>
+        <v>6.9</v>
       </c>
       <c r="D64" t="n">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="E64" t="n">
-        <v>12.9</v>
+        <v>15.2</v>
       </c>
       <c r="F64" t="n">
-        <v>15.2</v>
+        <v>17.0</v>
       </c>
       <c r="G64" t="n">
-        <v>20.3</v>
+        <v>19.4</v>
       </c>
       <c r="H64" t="n">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="I64" t="n">
-        <v>17.7</v>
+        <v>19.4</v>
       </c>
       <c r="J64" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="K64" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="L64" t="n">
         <v>22.1</v>
       </c>
       <c r="M64" t="n">
-        <v>25.6</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -3124,37 +3127,37 @@
         <v>141</v>
       </c>
       <c r="C65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D65" t="n">
         <v>13.5</v>
       </c>
-      <c r="D65" t="n">
-        <v>10.5</v>
-      </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="F65" t="n">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="G65" t="n">
-        <v>20.6</v>
+        <v>19.6</v>
       </c>
       <c r="H65" t="n">
-        <v>20.2</v>
+        <v>18.9</v>
       </c>
       <c r="I65" t="n">
-        <v>17.7</v>
+        <v>19.6</v>
       </c>
       <c r="J65" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="K65" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="L65" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="M65" t="n">
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="66">
@@ -3165,37 +3168,37 @@
         <v>142</v>
       </c>
       <c r="C66" t="n">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="D66" t="n">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="E66" t="n">
-        <v>12.9</v>
+        <v>16.3</v>
       </c>
       <c r="F66" t="n">
-        <v>15.2</v>
+        <v>17.9</v>
       </c>
       <c r="G66" t="n">
         <v>19.7</v>
       </c>
       <c r="H66" t="n">
-        <v>19.0</v>
+        <v>19.2</v>
       </c>
       <c r="I66" t="n">
-        <v>17.7</v>
+        <v>19.7</v>
       </c>
       <c r="J66" t="n">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="K66" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="L66" t="n">
         <v>22.1</v>
       </c>
       <c r="M66" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="67">
@@ -3206,37 +3209,78 @@
         <v>143</v>
       </c>
       <c r="C67" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G67" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M67" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E68" t="n">
         <v>12.5</v>
       </c>
-      <c r="D67" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="G67" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L67" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="M67" t="n">
-        <v>24.9</v>
+      <c r="F68" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L68" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>21.3</v>
       </c>
     </row>
   </sheetData>

--- a/01.descriptive/table_temp.xlsx
+++ b/01.descriptive/table_temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>i</t>
   </si>
@@ -248,9 +248,6 @@
     <t>66</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>Aimorés</t>
   </si>
   <si>
@@ -263,12 +260,12 @@
     <t>Andrelândia</t>
   </si>
   <si>
+    <t>Araxá</t>
+  </si>
+  <si>
     <t>Araçuaí</t>
   </si>
   <si>
-    <t>Araxá</t>
-  </si>
-  <si>
     <t>Barbacena</t>
   </si>
   <si>
@@ -371,12 +368,12 @@
     <t>Ouro Preto</t>
   </si>
   <si>
+    <t>Paracatu</t>
+  </si>
+  <si>
     <t>Pará de Minas</t>
   </si>
   <si>
-    <t>Paracatu</t>
-  </si>
-  <si>
     <t>Passos</t>
   </si>
   <si>
@@ -386,33 +383,36 @@
     <t>Patrocínio</t>
   </si>
   <si>
+    <t>Pedra Azul</t>
+  </si>
+  <si>
     <t>Peçanha</t>
   </si>
   <si>
-    <t>Pedra Azul</t>
-  </si>
-  <si>
     <t>Pirapora</t>
   </si>
   <si>
     <t>Piuí</t>
   </si>
   <si>
+    <t>Ponte Nova</t>
+  </si>
+  <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
     <t>Poços de Caldas</t>
   </si>
   <si>
-    <t>Ponte Nova</t>
-  </si>
-  <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
     <t>Salinas</t>
   </si>
   <si>
     <t>Santa Rita do Sapucaí</t>
   </si>
   <si>
+    <t>Sete Lagoas</t>
+  </si>
+  <si>
     <t>São João Del Rei</t>
   </si>
   <si>
@@ -422,22 +422,19 @@
     <t>São Sebastião do Paraíso</t>
   </si>
   <si>
-    <t>Sete Lagoas</t>
-  </si>
-  <si>
     <t>Teófilo Otoni</t>
   </si>
   <si>
     <t>Três Marias</t>
   </si>
   <si>
+    <t>Uberaba</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
     <t>Ubá</t>
-  </si>
-  <si>
-    <t>Uberaba</t>
-  </si>
-  <si>
-    <t>Uberlândia</t>
   </si>
   <si>
     <t>Unaí</t>
@@ -541,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n">
         <v>10.4</v>
@@ -582,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
         <v>6.1</v>
@@ -623,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>12.2</v>
@@ -664,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
         <v>4.6</v>
@@ -705,40 +702,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5</v>
+        <v>11.1</v>
       </c>
       <c r="E6" t="n">
-        <v>15.2</v>
+        <v>12.9</v>
       </c>
       <c r="F6" t="n">
-        <v>16.7</v>
+        <v>14.7</v>
       </c>
       <c r="G6" t="n">
-        <v>18.7</v>
+        <v>17.4</v>
       </c>
       <c r="H6" t="n">
-        <v>18.2</v>
+        <v>16.6</v>
       </c>
       <c r="I6" t="n">
-        <v>18.7</v>
+        <v>17.4</v>
       </c>
       <c r="J6" t="n">
-        <v>19.9</v>
+        <v>18.5</v>
       </c>
       <c r="K6" t="n">
-        <v>20.6</v>
+        <v>19.2</v>
       </c>
       <c r="L6" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
       <c r="M6" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="7">
@@ -746,40 +743,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>13.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>15.2</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7</v>
+        <v>16.7</v>
       </c>
       <c r="G7" t="n">
-        <v>17.4</v>
+        <v>18.7</v>
       </c>
       <c r="H7" t="n">
-        <v>16.6</v>
+        <v>18.2</v>
       </c>
       <c r="I7" t="n">
-        <v>17.4</v>
+        <v>18.7</v>
       </c>
       <c r="J7" t="n">
-        <v>18.5</v>
+        <v>19.9</v>
       </c>
       <c r="K7" t="n">
-        <v>19.2</v>
+        <v>20.6</v>
       </c>
       <c r="L7" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="M7" t="n">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="8">
@@ -787,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
@@ -828,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
         <v>7.6</v>
@@ -869,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
         <v>10.3</v>
@@ -910,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="n">
         <v>8.3</v>
@@ -951,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="n">
         <v>7.0</v>
@@ -992,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="n">
         <v>10.1</v>
@@ -1033,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
         <v>9.2</v>
@@ -1074,7 +1071,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
         <v>10.5</v>
@@ -1118,37 +1115,37 @@
         <v>92</v>
       </c>
       <c r="C16" t="n">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="D16" t="n">
-        <v>12.9</v>
+        <v>11.0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.8</v>
+        <v>12.5</v>
       </c>
       <c r="F16" t="n">
-        <v>16.5</v>
+        <v>14.1</v>
       </c>
       <c r="G16" t="n">
-        <v>19.0</v>
+        <v>16.8</v>
       </c>
       <c r="H16" t="n">
-        <v>18.6</v>
+        <v>16.1</v>
       </c>
       <c r="I16" t="n">
-        <v>19.0</v>
+        <v>16.8</v>
       </c>
       <c r="J16" t="n">
-        <v>20.9</v>
+        <v>18.2</v>
       </c>
       <c r="K16" t="n">
-        <v>21.8</v>
+        <v>18.9</v>
       </c>
       <c r="L16" t="n">
-        <v>22.5</v>
+        <v>19.7</v>
       </c>
       <c r="M16" t="n">
-        <v>23.9</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="17">
@@ -1159,37 +1156,37 @@
         <v>93</v>
       </c>
       <c r="C17" t="n">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="D17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E17" t="n">
         <v>11.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="F17" t="n">
-        <v>14.1</v>
+        <v>12.8</v>
       </c>
       <c r="G17" t="n">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="H17" t="n">
-        <v>16.1</v>
+        <v>15.0</v>
       </c>
       <c r="I17" t="n">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="J17" t="n">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="K17" t="n">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="L17" t="n">
-        <v>19.7</v>
+        <v>19.0</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="18">
@@ -1200,37 +1197,37 @@
         <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>6.3</v>
+        <v>10.2</v>
       </c>
       <c r="D18" t="n">
-        <v>9.4</v>
+        <v>13.3</v>
       </c>
       <c r="E18" t="n">
-        <v>11.0</v>
+        <v>14.8</v>
       </c>
       <c r="F18" t="n">
-        <v>12.8</v>
+        <v>16.5</v>
       </c>
       <c r="G18" t="n">
-        <v>15.6</v>
+        <v>19.1</v>
       </c>
       <c r="H18" t="n">
-        <v>15.0</v>
+        <v>18.4</v>
       </c>
       <c r="I18" t="n">
-        <v>15.6</v>
+        <v>19.1</v>
       </c>
       <c r="J18" t="n">
-        <v>17.5</v>
+        <v>20.4</v>
       </c>
       <c r="K18" t="n">
-        <v>18.3</v>
+        <v>21.1</v>
       </c>
       <c r="L18" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="19">
@@ -1241,37 +1238,37 @@
         <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>10.2</v>
+        <v>8.0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E19" t="n">
-        <v>14.8</v>
+        <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>16.5</v>
+        <v>14.3</v>
       </c>
       <c r="G19" t="n">
-        <v>19.1</v>
+        <v>16.8</v>
       </c>
       <c r="H19" t="n">
-        <v>18.4</v>
+        <v>16.1</v>
       </c>
       <c r="I19" t="n">
-        <v>19.1</v>
+        <v>16.8</v>
       </c>
       <c r="J19" t="n">
-        <v>20.4</v>
+        <v>18.1</v>
       </c>
       <c r="K19" t="n">
-        <v>21.1</v>
+        <v>18.8</v>
       </c>
       <c r="L19" t="n">
-        <v>22.0</v>
+        <v>19.5</v>
       </c>
       <c r="M19" t="n">
-        <v>24.2</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="20">
@@ -1282,37 +1279,37 @@
         <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="D20" t="n">
-        <v>11.1</v>
+        <v>11.0</v>
       </c>
       <c r="E20" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F20" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="G20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H20" t="n">
         <v>16.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>16.1</v>
-      </c>
       <c r="I20" t="n">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="J20" t="n">
-        <v>18.1</v>
+        <v>19.1</v>
       </c>
       <c r="K20" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="L20" t="n">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="M20" t="n">
-        <v>21.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="21">
@@ -1323,37 +1320,37 @@
         <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D21" t="n">
-        <v>11.0</v>
+        <v>10.9</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F21" t="n">
         <v>14.5</v>
       </c>
       <c r="G21" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="H21" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="I21" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="J21" t="n">
-        <v>19.1</v>
+        <v>19.0</v>
       </c>
       <c r="K21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="L21" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="M21" t="n">
-        <v>22.8</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="22">
@@ -1367,34 +1364,34 @@
         <v>7.7</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9</v>
+        <v>13.7</v>
       </c>
       <c r="E22" t="n">
-        <v>12.7</v>
+        <v>16.6</v>
       </c>
       <c r="F22" t="n">
-        <v>14.5</v>
+        <v>18.6</v>
       </c>
       <c r="G22" t="n">
-        <v>17.4</v>
+        <v>21.0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.7</v>
+        <v>20.2</v>
       </c>
       <c r="I22" t="n">
-        <v>17.4</v>
+        <v>21.0</v>
       </c>
       <c r="J22" t="n">
-        <v>19.0</v>
+        <v>22.1</v>
       </c>
       <c r="K22" t="n">
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
       <c r="L22" t="n">
-        <v>20.4</v>
+        <v>23.8</v>
       </c>
       <c r="M22" t="n">
-        <v>21.9</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="23">
@@ -1405,37 +1402,37 @@
         <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>7.7</v>
+        <v>11.2</v>
       </c>
       <c r="D23" t="n">
-        <v>13.7</v>
+        <v>14.6</v>
       </c>
       <c r="E23" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="F23" t="n">
-        <v>18.6</v>
+        <v>17.9</v>
       </c>
       <c r="G23" t="n">
-        <v>21.0</v>
+        <v>20.1</v>
       </c>
       <c r="H23" t="n">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="I23" t="n">
-        <v>21.0</v>
+        <v>20.1</v>
       </c>
       <c r="J23" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="K23" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="L23" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -1446,37 +1443,37 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="D24" t="n">
-        <v>14.6</v>
+        <v>12.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4</v>
+        <v>14.1</v>
       </c>
       <c r="F24" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G24" t="n">
         <v>17.9</v>
       </c>
-      <c r="G24" t="n">
-        <v>20.1</v>
-      </c>
       <c r="H24" t="n">
-        <v>19.7</v>
+        <v>17.3</v>
       </c>
       <c r="I24" t="n">
-        <v>20.1</v>
+        <v>17.9</v>
       </c>
       <c r="J24" t="n">
-        <v>21.5</v>
+        <v>19.0</v>
       </c>
       <c r="K24" t="n">
-        <v>22.3</v>
+        <v>19.8</v>
       </c>
       <c r="L24" t="n">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="M24" t="n">
-        <v>25.0</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="25">
@@ -1487,37 +1484,37 @@
         <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>10.4</v>
+        <v>8.8</v>
       </c>
       <c r="D25" t="n">
-        <v>12.7</v>
+        <v>12.0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="F25" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="G25" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="H25" t="n">
-        <v>17.3</v>
+        <v>17.0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="J25" t="n">
         <v>19.0</v>
       </c>
       <c r="K25" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="L25" t="n">
         <v>20.5</v>
       </c>
       <c r="M25" t="n">
-        <v>23.3</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="26">
@@ -1528,37 +1525,37 @@
         <v>102</v>
       </c>
       <c r="C26" t="n">
-        <v>8.8</v>
+        <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>12.0</v>
+        <v>13.5</v>
       </c>
       <c r="E26" t="n">
-        <v>13.5</v>
+        <v>14.9</v>
       </c>
       <c r="F26" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="G26" t="n">
-        <v>17.6</v>
+        <v>18.9</v>
       </c>
       <c r="H26" t="n">
-        <v>17.0</v>
+        <v>18.4</v>
       </c>
       <c r="I26" t="n">
-        <v>17.6</v>
+        <v>18.9</v>
       </c>
       <c r="J26" t="n">
-        <v>19.0</v>
+        <v>20.4</v>
       </c>
       <c r="K26" t="n">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="L26" t="n">
-        <v>20.5</v>
+        <v>21.9</v>
       </c>
       <c r="M26" t="n">
-        <v>22.1</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="27">
@@ -1569,37 +1566,37 @@
         <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>10.0</v>
+        <v>7.4</v>
       </c>
       <c r="D27" t="n">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="E27" t="n">
-        <v>14.9</v>
+        <v>13.0</v>
       </c>
       <c r="F27" t="n">
-        <v>16.5</v>
+        <v>14.6</v>
       </c>
       <c r="G27" t="n">
-        <v>18.9</v>
+        <v>17.2</v>
       </c>
       <c r="H27" t="n">
-        <v>18.4</v>
+        <v>16.7</v>
       </c>
       <c r="I27" t="n">
-        <v>18.9</v>
+        <v>17.2</v>
       </c>
       <c r="J27" t="n">
-        <v>20.4</v>
+        <v>18.8</v>
       </c>
       <c r="K27" t="n">
-        <v>21.2</v>
+        <v>19.6</v>
       </c>
       <c r="L27" t="n">
-        <v>21.9</v>
+        <v>20.3</v>
       </c>
       <c r="M27" t="n">
-        <v>23.3</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="28">
@@ -1610,37 +1607,37 @@
         <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="D28" t="n">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="E28" t="n">
-        <v>13.0</v>
+        <v>11.7</v>
       </c>
       <c r="F28" t="n">
-        <v>14.6</v>
+        <v>13.5</v>
       </c>
       <c r="G28" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="H28" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="I28" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="J28" t="n">
-        <v>18.8</v>
+        <v>17.9</v>
       </c>
       <c r="K28" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="L28" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="M28" t="n">
         <v>20.3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>21.3</v>
       </c>
     </row>
     <row r="29">
@@ -1651,37 +1648,37 @@
         <v>105</v>
       </c>
       <c r="C29" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="D29" t="n">
-        <v>10.1</v>
+        <v>7.4</v>
       </c>
       <c r="E29" t="n">
-        <v>11.7</v>
+        <v>9.6</v>
       </c>
       <c r="F29" t="n">
-        <v>13.5</v>
+        <v>11.4</v>
       </c>
       <c r="G29" t="n">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="H29" t="n">
-        <v>15.6</v>
+        <v>13.6</v>
       </c>
       <c r="I29" t="n">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="J29" t="n">
-        <v>17.9</v>
+        <v>16.0</v>
       </c>
       <c r="K29" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="M29" t="n">
         <v>18.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>20.3</v>
       </c>
     </row>
     <row r="30">
@@ -1692,37 +1689,37 @@
         <v>106</v>
       </c>
       <c r="C30" t="n">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
       <c r="D30" t="n">
-        <v>7.4</v>
+        <v>14.1</v>
       </c>
       <c r="E30" t="n">
-        <v>9.6</v>
+        <v>17.1</v>
       </c>
       <c r="F30" t="n">
-        <v>11.4</v>
+        <v>18.9</v>
       </c>
       <c r="G30" t="n">
-        <v>14.2</v>
+        <v>21.1</v>
       </c>
       <c r="H30" t="n">
-        <v>13.6</v>
+        <v>20.4</v>
       </c>
       <c r="I30" t="n">
-        <v>14.2</v>
+        <v>21.1</v>
       </c>
       <c r="J30" t="n">
-        <v>16.0</v>
+        <v>22.1</v>
       </c>
       <c r="K30" t="n">
-        <v>16.9</v>
+        <v>22.8</v>
       </c>
       <c r="L30" t="n">
-        <v>17.6</v>
+        <v>23.8</v>
       </c>
       <c r="M30" t="n">
-        <v>18.7</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="31">
@@ -1733,37 +1730,37 @@
         <v>107</v>
       </c>
       <c r="C31" t="n">
-        <v>7.7</v>
+        <v>13.6</v>
       </c>
       <c r="D31" t="n">
-        <v>14.1</v>
+        <v>15.6</v>
       </c>
       <c r="E31" t="n">
-        <v>17.1</v>
+        <v>17.0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="G31" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="H31" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="I31" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="J31" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K31" t="n">
         <v>22.1</v>
       </c>
-      <c r="K31" t="n">
-        <v>22.8</v>
-      </c>
       <c r="L31" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="M31" t="n">
-        <v>26.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="32">
@@ -1774,37 +1771,37 @@
         <v>108</v>
       </c>
       <c r="C32" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6</v>
+        <v>16.0</v>
       </c>
       <c r="E32" t="n">
-        <v>17.0</v>
+        <v>17.4</v>
       </c>
       <c r="F32" t="n">
-        <v>18.5</v>
+        <v>19.0</v>
       </c>
       <c r="G32" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="H32" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="I32" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="J32" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="K32" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="L32" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="M32" t="n">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="33">
@@ -1815,37 +1812,37 @@
         <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
       <c r="D33" t="n">
-        <v>16.0</v>
+        <v>10.4</v>
       </c>
       <c r="E33" t="n">
-        <v>17.4</v>
+        <v>12.3</v>
       </c>
       <c r="F33" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="G33" t="n">
-        <v>20.6</v>
+        <v>16.6</v>
       </c>
       <c r="H33" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L33" t="n">
         <v>20.2</v>
       </c>
-      <c r="I33" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>23.3</v>
-      </c>
       <c r="M33" t="n">
-        <v>26.3</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="34">
@@ -1856,37 +1853,37 @@
         <v>110</v>
       </c>
       <c r="C34" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="D34" t="n">
-        <v>10.4</v>
+        <v>8.9</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>10.9</v>
       </c>
       <c r="F34" t="n">
-        <v>14.0</v>
+        <v>12.9</v>
       </c>
       <c r="G34" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="H34" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="I34" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="J34" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K34" t="n">
         <v>18.5</v>
       </c>
-      <c r="K34" t="n">
-        <v>19.5</v>
-      </c>
       <c r="L34" t="n">
-        <v>20.2</v>
+        <v>19.1</v>
       </c>
       <c r="M34" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="35">
@@ -1897,37 +1894,37 @@
         <v>111</v>
       </c>
       <c r="C35" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="D35" t="n">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="E35" t="n">
-        <v>10.9</v>
+        <v>12.7</v>
       </c>
       <c r="F35" t="n">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="G35" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="H35" t="n">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="I35" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="J35" t="n">
-        <v>17.6</v>
+        <v>18.3</v>
       </c>
       <c r="K35" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="L35" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="M35" t="n">
-        <v>20.1</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="36">
@@ -1938,37 +1935,37 @@
         <v>112</v>
       </c>
       <c r="C36" t="n">
-        <v>7.5</v>
+        <v>11.6</v>
       </c>
       <c r="D36" t="n">
-        <v>11.1</v>
+        <v>13.9</v>
       </c>
       <c r="E36" t="n">
-        <v>12.7</v>
+        <v>15.8</v>
       </c>
       <c r="F36" t="n">
-        <v>14.2</v>
+        <v>17.4</v>
       </c>
       <c r="G36" t="n">
-        <v>16.6</v>
+        <v>19.3</v>
       </c>
       <c r="H36" t="n">
-        <v>16.2</v>
+        <v>18.9</v>
       </c>
       <c r="I36" t="n">
-        <v>16.6</v>
+        <v>19.3</v>
       </c>
       <c r="J36" t="n">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="K36" t="n">
-        <v>19.1</v>
+        <v>21.4</v>
       </c>
       <c r="L36" t="n">
-        <v>19.9</v>
+        <v>22.1</v>
       </c>
       <c r="M36" t="n">
-        <v>21.0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="37">
@@ -1979,37 +1976,37 @@
         <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="E37" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="F37" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="G37" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H37" t="n">
         <v>19.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>18.9</v>
-      </c>
       <c r="I37" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="J37" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="K37" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="L37" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="M37" t="n">
-        <v>23.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="38">
@@ -2020,37 +2017,37 @@
         <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>12.4</v>
+        <v>8.2</v>
       </c>
       <c r="D38" t="n">
-        <v>15.1</v>
+        <v>11.3</v>
       </c>
       <c r="E38" t="n">
-        <v>16.3</v>
+        <v>13.0</v>
       </c>
       <c r="F38" t="n">
-        <v>17.9</v>
+        <v>14.7</v>
       </c>
       <c r="G38" t="n">
-        <v>19.7</v>
+        <v>17.3</v>
       </c>
       <c r="H38" t="n">
-        <v>19.3</v>
+        <v>16.8</v>
       </c>
       <c r="I38" t="n">
-        <v>19.7</v>
+        <v>17.3</v>
       </c>
       <c r="J38" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L38" t="n">
         <v>20.8</v>
       </c>
-      <c r="K38" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="L38" t="n">
-        <v>22.8</v>
-      </c>
       <c r="M38" t="n">
-        <v>25.9</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="39">
@@ -2061,37 +2058,37 @@
         <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>8.2</v>
+        <v>12.6</v>
       </c>
       <c r="D39" t="n">
-        <v>11.3</v>
+        <v>15.1</v>
       </c>
       <c r="E39" t="n">
-        <v>13.0</v>
+        <v>16.6</v>
       </c>
       <c r="F39" t="n">
-        <v>14.7</v>
+        <v>18.0</v>
       </c>
       <c r="G39" t="n">
-        <v>17.3</v>
+        <v>20.1</v>
       </c>
       <c r="H39" t="n">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
       <c r="I39" t="n">
-        <v>17.3</v>
+        <v>20.1</v>
       </c>
       <c r="J39" t="n">
-        <v>19.2</v>
+        <v>21.3</v>
       </c>
       <c r="K39" t="n">
-        <v>20.1</v>
+        <v>22.3</v>
       </c>
       <c r="L39" t="n">
-        <v>20.8</v>
+        <v>23.2</v>
       </c>
       <c r="M39" t="n">
-        <v>22.2</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="40">
@@ -2102,37 +2099,37 @@
         <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>12.6</v>
+        <v>6.7</v>
       </c>
       <c r="D40" t="n">
-        <v>15.1</v>
+        <v>9.6</v>
       </c>
       <c r="E40" t="n">
-        <v>16.6</v>
+        <v>11.5</v>
       </c>
       <c r="F40" t="n">
-        <v>18.0</v>
+        <v>13.4</v>
       </c>
       <c r="G40" t="n">
-        <v>20.1</v>
+        <v>16.2</v>
       </c>
       <c r="H40" t="n">
-        <v>19.7</v>
+        <v>15.5</v>
       </c>
       <c r="I40" t="n">
-        <v>20.1</v>
+        <v>16.2</v>
       </c>
       <c r="J40" t="n">
-        <v>21.3</v>
+        <v>17.9</v>
       </c>
       <c r="K40" t="n">
-        <v>22.3</v>
+        <v>18.7</v>
       </c>
       <c r="L40" t="n">
-        <v>23.2</v>
+        <v>19.3</v>
       </c>
       <c r="M40" t="n">
-        <v>24.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="41">
@@ -2143,37 +2140,37 @@
         <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>6.7</v>
+        <v>6.0</v>
       </c>
       <c r="D41" t="n">
-        <v>9.6</v>
+        <v>10.0</v>
       </c>
       <c r="E41" t="n">
         <v>11.5</v>
       </c>
       <c r="F41" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="G41" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="H41" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="I41" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="J41" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="K41" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="L41" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="M41" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="42">
@@ -2184,37 +2181,37 @@
         <v>118</v>
       </c>
       <c r="C42" t="n">
-        <v>6.0</v>
+        <v>10.7</v>
       </c>
       <c r="D42" t="n">
-        <v>10.0</v>
+        <v>14.3</v>
       </c>
       <c r="E42" t="n">
-        <v>11.5</v>
+        <v>15.7</v>
       </c>
       <c r="F42" t="n">
-        <v>13.1</v>
+        <v>17.3</v>
       </c>
       <c r="G42" t="n">
-        <v>15.9</v>
+        <v>19.7</v>
       </c>
       <c r="H42" t="n">
-        <v>15.3</v>
+        <v>19.0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.9</v>
+        <v>19.7</v>
       </c>
       <c r="J42" t="n">
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="K42" t="n">
-        <v>18.5</v>
+        <v>21.4</v>
       </c>
       <c r="L42" t="n">
-        <v>19.1</v>
+        <v>22.5</v>
       </c>
       <c r="M42" t="n">
-        <v>19.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="43">
@@ -2266,37 +2263,37 @@
         <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="D44" t="n">
-        <v>14.3</v>
+        <v>11.3</v>
       </c>
       <c r="E44" t="n">
-        <v>15.7</v>
+        <v>13.1</v>
       </c>
       <c r="F44" t="n">
-        <v>17.3</v>
+        <v>15.0</v>
       </c>
       <c r="G44" t="n">
-        <v>19.7</v>
+        <v>17.9</v>
       </c>
       <c r="H44" t="n">
-        <v>19.0</v>
+        <v>17.1</v>
       </c>
       <c r="I44" t="n">
-        <v>19.7</v>
+        <v>17.9</v>
       </c>
       <c r="J44" t="n">
-        <v>20.7</v>
+        <v>19.3</v>
       </c>
       <c r="K44" t="n">
-        <v>21.4</v>
+        <v>20.0</v>
       </c>
       <c r="L44" t="n">
-        <v>22.5</v>
+        <v>20.6</v>
       </c>
       <c r="M44" t="n">
-        <v>25.1</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="45">
@@ -2307,37 +2304,37 @@
         <v>121</v>
       </c>
       <c r="C45" t="n">
-        <v>6.9</v>
+        <v>8.0</v>
       </c>
       <c r="D45" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F45" t="n">
-        <v>15.0</v>
+        <v>15.1</v>
       </c>
       <c r="G45" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="H45" t="n">
-        <v>17.1</v>
+        <v>17.0</v>
       </c>
       <c r="I45" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="J45" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="K45" t="n">
-        <v>20.0</v>
+        <v>19.6</v>
       </c>
       <c r="L45" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="M45" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="46">
@@ -2348,37 +2345,37 @@
         <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>8.0</v>
+        <v>8.1</v>
       </c>
       <c r="D46" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="F46" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="G46" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="H46" t="n">
-        <v>17.0</v>
+        <v>17.5</v>
       </c>
       <c r="I46" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="J46" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="K46" t="n">
-        <v>19.6</v>
+        <v>20.0</v>
       </c>
       <c r="L46" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="M46" t="n">
-        <v>22.4</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="47">
@@ -2389,37 +2386,37 @@
         <v>123</v>
       </c>
       <c r="C47" t="n">
-        <v>8.1</v>
+        <v>11.4</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="E47" t="n">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="F47" t="n">
-        <v>15.7</v>
+        <v>16.6</v>
       </c>
       <c r="G47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="H47" t="n">
-        <v>17.5</v>
+        <v>18.0</v>
       </c>
       <c r="I47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="J47" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="K47" t="n">
-        <v>20.0</v>
+        <v>20.2</v>
       </c>
       <c r="L47" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="M47" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="48">
@@ -2471,37 +2468,37 @@
         <v>125</v>
       </c>
       <c r="C49" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="D49" t="n">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="E49" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="F49" t="n">
-        <v>16.6</v>
+        <v>18.1</v>
       </c>
       <c r="G49" t="n">
-        <v>18.4</v>
+        <v>20.2</v>
       </c>
       <c r="H49" t="n">
-        <v>18.0</v>
+        <v>19.7</v>
       </c>
       <c r="I49" t="n">
-        <v>18.4</v>
+        <v>20.2</v>
       </c>
       <c r="J49" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="K49" t="n">
-        <v>20.2</v>
+        <v>22.2</v>
       </c>
       <c r="L49" t="n">
-        <v>20.9</v>
+        <v>23.3</v>
       </c>
       <c r="M49" t="n">
-        <v>23.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="50">
@@ -2512,37 +2509,37 @@
         <v>126</v>
       </c>
       <c r="C50" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E50" t="n">
         <v>12.5</v>
       </c>
-      <c r="D50" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>16.5</v>
-      </c>
       <c r="F50" t="n">
-        <v>18.1</v>
+        <v>14.2</v>
       </c>
       <c r="G50" t="n">
-        <v>20.2</v>
+        <v>17.3</v>
       </c>
       <c r="H50" t="n">
-        <v>19.7</v>
+        <v>16.4</v>
       </c>
       <c r="I50" t="n">
-        <v>20.2</v>
+        <v>17.3</v>
       </c>
       <c r="J50" t="n">
-        <v>21.3</v>
+        <v>18.7</v>
       </c>
       <c r="K50" t="n">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="L50" t="n">
-        <v>23.3</v>
+        <v>20.1</v>
       </c>
       <c r="M50" t="n">
-        <v>25.7</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="51">
@@ -2553,37 +2550,37 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>6.7</v>
+        <v>8.2</v>
       </c>
       <c r="D51" t="n">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="E51" t="n">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="F51" t="n">
-        <v>14.2</v>
+        <v>15.6</v>
       </c>
       <c r="G51" t="n">
-        <v>17.3</v>
+        <v>18.4</v>
       </c>
       <c r="H51" t="n">
-        <v>16.4</v>
+        <v>17.8</v>
       </c>
       <c r="I51" t="n">
-        <v>17.3</v>
+        <v>18.4</v>
       </c>
       <c r="J51" t="n">
-        <v>18.7</v>
+        <v>20.1</v>
       </c>
       <c r="K51" t="n">
-        <v>19.5</v>
+        <v>21.0</v>
       </c>
       <c r="L51" t="n">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="M51" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="52">
@@ -2594,37 +2591,37 @@
         <v>128</v>
       </c>
       <c r="C52" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D52" t="n">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="E52" t="n">
-        <v>10.8</v>
+        <v>10.2</v>
       </c>
       <c r="F52" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="G52" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="H52" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I52" t="n">
         <v>14.8</v>
       </c>
-      <c r="I52" t="n">
-        <v>15.6</v>
-      </c>
       <c r="J52" t="n">
-        <v>17.3</v>
+        <v>16.6</v>
       </c>
       <c r="K52" t="n">
-        <v>18.0</v>
+        <v>17.4</v>
       </c>
       <c r="L52" t="n">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="M52" t="n">
-        <v>20.0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="53">
@@ -2635,37 +2632,37 @@
         <v>129</v>
       </c>
       <c r="C53" t="n">
-        <v>8.2</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="n">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="E53" t="n">
-        <v>13.9</v>
+        <v>10.8</v>
       </c>
       <c r="F53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="G53" t="n">
         <v>15.6</v>
       </c>
-      <c r="G53" t="n">
-        <v>18.4</v>
-      </c>
       <c r="H53" t="n">
-        <v>17.8</v>
+        <v>14.8</v>
       </c>
       <c r="I53" t="n">
-        <v>18.4</v>
+        <v>15.6</v>
       </c>
       <c r="J53" t="n">
-        <v>20.1</v>
+        <v>17.3</v>
       </c>
       <c r="K53" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="L53" t="n">
-        <v>21.7</v>
+        <v>18.7</v>
       </c>
       <c r="M53" t="n">
-        <v>22.9</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="54">
@@ -2676,37 +2673,37 @@
         <v>130</v>
       </c>
       <c r="C54" t="n">
-        <v>2.5</v>
+        <v>10.9</v>
       </c>
       <c r="D54" t="n">
-        <v>7.7</v>
+        <v>13.0</v>
       </c>
       <c r="E54" t="n">
-        <v>10.2</v>
+        <v>14.5</v>
       </c>
       <c r="F54" t="n">
-        <v>11.9</v>
+        <v>16.0</v>
       </c>
       <c r="G54" t="n">
-        <v>14.8</v>
+        <v>17.9</v>
       </c>
       <c r="H54" t="n">
-        <v>14.1</v>
+        <v>17.4</v>
       </c>
       <c r="I54" t="n">
-        <v>14.8</v>
+        <v>17.9</v>
       </c>
       <c r="J54" t="n">
-        <v>16.6</v>
+        <v>18.9</v>
       </c>
       <c r="K54" t="n">
-        <v>17.4</v>
+        <v>19.6</v>
       </c>
       <c r="L54" t="n">
-        <v>18.1</v>
+        <v>20.4</v>
       </c>
       <c r="M54" t="n">
-        <v>19.2</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="55">
@@ -2717,37 +2714,37 @@
         <v>131</v>
       </c>
       <c r="C55" t="n">
-        <v>10.9</v>
+        <v>4.2</v>
       </c>
       <c r="D55" t="n">
-        <v>13.0</v>
+        <v>8.4</v>
       </c>
       <c r="E55" t="n">
-        <v>14.5</v>
+        <v>10.6</v>
       </c>
       <c r="F55" t="n">
-        <v>16.0</v>
+        <v>12.6</v>
       </c>
       <c r="G55" t="n">
-        <v>17.9</v>
+        <v>15.7</v>
       </c>
       <c r="H55" t="n">
-        <v>17.4</v>
+        <v>14.9</v>
       </c>
       <c r="I55" t="n">
-        <v>17.9</v>
+        <v>15.7</v>
       </c>
       <c r="J55" t="n">
-        <v>18.9</v>
+        <v>17.5</v>
       </c>
       <c r="K55" t="n">
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
       <c r="L55" t="n">
-        <v>20.4</v>
+        <v>19.1</v>
       </c>
       <c r="M55" t="n">
-        <v>23.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="56">
@@ -2758,37 +2755,37 @@
         <v>132</v>
       </c>
       <c r="C56" t="n">
-        <v>4.2</v>
+        <v>9.0</v>
       </c>
       <c r="D56" t="n">
-        <v>8.4</v>
+        <v>12.1</v>
       </c>
       <c r="E56" t="n">
-        <v>10.6</v>
+        <v>13.6</v>
       </c>
       <c r="F56" t="n">
-        <v>12.6</v>
+        <v>15.4</v>
       </c>
       <c r="G56" t="n">
-        <v>15.7</v>
+        <v>18.0</v>
       </c>
       <c r="H56" t="n">
-        <v>14.9</v>
+        <v>17.3</v>
       </c>
       <c r="I56" t="n">
-        <v>15.7</v>
+        <v>18.0</v>
       </c>
       <c r="J56" t="n">
-        <v>17.5</v>
+        <v>19.4</v>
       </c>
       <c r="K56" t="n">
-        <v>18.4</v>
+        <v>20.2</v>
       </c>
       <c r="L56" t="n">
-        <v>19.1</v>
+        <v>21.1</v>
       </c>
       <c r="M56" t="n">
-        <v>20.2</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="57">
@@ -2922,37 +2919,37 @@
         <v>136</v>
       </c>
       <c r="C60" t="n">
-        <v>9.0</v>
+        <v>11.2</v>
       </c>
       <c r="D60" t="n">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
       <c r="E60" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="F60" t="n">
-        <v>15.4</v>
+        <v>16.9</v>
       </c>
       <c r="G60" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H60" t="n">
-        <v>17.3</v>
+        <v>18.5</v>
       </c>
       <c r="I60" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="J60" t="n">
-        <v>19.4</v>
+        <v>20.2</v>
       </c>
       <c r="K60" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="L60" t="n">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="M60" t="n">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="61">
@@ -2963,37 +2960,37 @@
         <v>137</v>
       </c>
       <c r="C61" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="D61" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E61" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F61" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="G61" t="n">
-        <v>19.0</v>
+        <v>19.5</v>
       </c>
       <c r="H61" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="I61" t="n">
-        <v>19.0</v>
+        <v>19.5</v>
       </c>
       <c r="J61" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="K61" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="L61" t="n">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="M61" t="n">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="62">
@@ -3004,37 +3001,37 @@
         <v>138</v>
       </c>
       <c r="C62" t="n">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="D62" t="n">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="E62" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F62" t="n">
-        <v>16.8</v>
+        <v>17.0</v>
       </c>
       <c r="G62" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="H62" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="I62" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="J62" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="K62" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="L62" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="M62" t="n">
-        <v>24.8</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -3045,37 +3042,37 @@
         <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="D63" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="E63" t="n">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>15.2</v>
+        <v>17.3</v>
       </c>
       <c r="G63" t="n">
-        <v>17.9</v>
+        <v>19.6</v>
       </c>
       <c r="H63" t="n">
-        <v>17.4</v>
+        <v>18.9</v>
       </c>
       <c r="I63" t="n">
-        <v>17.9</v>
+        <v>19.6</v>
       </c>
       <c r="J63" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="K63" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="L63" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="M63" t="n">
-        <v>22.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="64">
@@ -3086,37 +3083,37 @@
         <v>140</v>
       </c>
       <c r="C64" t="n">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="E64" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F64" t="n">
         <v>15.2</v>
       </c>
-      <c r="F64" t="n">
-        <v>17.0</v>
-      </c>
       <c r="G64" t="n">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="H64" t="n">
-        <v>18.7</v>
+        <v>17.4</v>
       </c>
       <c r="I64" t="n">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="J64" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="K64" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="L64" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="M64" t="n">
-        <v>25.0</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="65">
@@ -3127,37 +3124,37 @@
         <v>141</v>
       </c>
       <c r="C65" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5</v>
+        <v>14.9</v>
       </c>
       <c r="E65" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="F65" t="n">
-        <v>17.3</v>
+        <v>17.9</v>
       </c>
       <c r="G65" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="H65" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="I65" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="J65" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="K65" t="n">
         <v>21.2</v>
       </c>
       <c r="L65" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="M65" t="n">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="66">
@@ -3168,37 +3165,37 @@
         <v>142</v>
       </c>
       <c r="C66" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="D66" t="n">
-        <v>14.9</v>
+        <v>9.7</v>
       </c>
       <c r="E66" t="n">
-        <v>16.3</v>
+        <v>11.7</v>
       </c>
       <c r="F66" t="n">
-        <v>17.9</v>
+        <v>13.6</v>
       </c>
       <c r="G66" t="n">
-        <v>19.7</v>
+        <v>16.6</v>
       </c>
       <c r="H66" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K66" t="n">
         <v>19.2</v>
       </c>
-      <c r="I66" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>21.2</v>
-      </c>
       <c r="L66" t="n">
-        <v>22.1</v>
+        <v>19.8</v>
       </c>
       <c r="M66" t="n">
-        <v>24.9</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="67">
@@ -3209,77 +3206,36 @@
         <v>143</v>
       </c>
       <c r="C67" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="D67" t="n">
-        <v>9.7</v>
+        <v>10.7</v>
       </c>
       <c r="E67" t="n">
-        <v>11.7</v>
+        <v>12.5</v>
       </c>
       <c r="F67" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="G67" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="H67" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="I67" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="J67" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="K67" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="L67" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="M67" t="n">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F68" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="L68" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="M68" t="n">
         <v>21.3</v>
       </c>
     </row>
